--- a/技术图纸/调度平台图纸/连接柱图纸/外连接柱图纸/22度外连接柱图纸/11972211 22度连接柱模块，外，（深灰）.xlsx
+++ b/技术图纸/调度平台图纸/连接柱图纸/外连接柱图纸/22度外连接柱图纸/11972211 22度连接柱模块，外，（深灰）.xlsx
@@ -498,9 +498,30 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,34 +564,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -892,15 +892,15 @@
     <row r="2" spans="1:9" ht="20.25" customHeight="1" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" customHeight="1" thickBot="1">
       <c r="A3" s="3"/>
@@ -910,17 +910,17 @@
       </c>
       <c r="D3" s="36">
         <f ca="1">TODAY()</f>
-        <v>41985</v>
-      </c>
-      <c r="E3" s="49" t="s">
+        <v>42209</v>
+      </c>
+      <c r="E3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="42" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -931,16 +931,16 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1"/>
@@ -950,17 +950,17 @@
       <c r="B7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="28" t="s">
         <v>5</v>
       </c>
@@ -972,17 +972,17 @@
       <c r="B8" s="37">
         <v>1</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="29">
         <v>11102200</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="54"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="30">
         <v>1</v>
       </c>
@@ -994,17 +994,17 @@
       <c r="B9" s="37">
         <v>2</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="29">
         <v>11102202</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="30">
         <v>1</v>
       </c>
@@ -1016,17 +1016,17 @@
       <c r="B10" s="37">
         <v>3</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="29">
         <v>11102221</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="54"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="30">
         <v>1</v>
       </c>
@@ -1038,17 +1038,17 @@
       <c r="B11" s="37">
         <v>4</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="29">
         <v>11102225</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="30">
         <v>1</v>
       </c>
@@ -1060,17 +1060,17 @@
       <c r="B12" s="26">
         <v>5</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="59"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="57"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="33">
         <v>2</v>
       </c>
@@ -1080,17 +1080,17 @@
       <c r="B13" s="26">
         <v>6</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="59"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="33">
         <v>4</v>
       </c>
@@ -1108,8 +1108,8 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="24"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="15"/>
       <c r="F15" s="16"/>
       <c r="G15" s="12"/>
@@ -1118,8 +1118,8 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="24"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="15"/>
       <c r="F16" s="21"/>
       <c r="G16" s="20"/>
@@ -1128,8 +1128,8 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="24"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="13"/>
       <c r="F17" s="19"/>
       <c r="G17" s="14"/>
@@ -1138,8 +1138,8 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="24"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="15"/>
       <c r="F18" s="16"/>
       <c r="G18" s="12"/>
@@ -1148,8 +1148,8 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="24"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
       <c r="G19" s="12"/>
@@ -1158,8 +1158,8 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="12"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="13"/>
       <c r="F20" s="21"/>
       <c r="G20" s="20"/>
@@ -1168,8 +1168,8 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="12"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="13"/>
       <c r="F21" s="21"/>
       <c r="G21" s="20"/>
@@ -1178,8 +1178,8 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="12"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="13"/>
       <c r="F22" s="19"/>
       <c r="G22" s="14"/>
@@ -1188,8 +1188,8 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="12"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="13"/>
       <c r="F23" s="19"/>
       <c r="G23" s="14"/>
@@ -1197,9 +1197,9 @@
       <c r="I23" s="14"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="13"/>
       <c r="F24" s="19"/>
       <c r="G24" s="14"/>
@@ -1207,9 +1207,9 @@
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="60"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="12"/>
@@ -1217,9 +1217,9 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="60"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="15"/>
       <c r="F26" s="16"/>
       <c r="G26" s="12"/>
@@ -1227,9 +1227,9 @@
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="13"/>
       <c r="F27" s="19"/>
       <c r="G27" s="14"/>
@@ -1237,9 +1237,9 @@
       <c r="I27" s="14"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="60"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="12"/>
@@ -1247,9 +1247,9 @@
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="60"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="15"/>
       <c r="F29" s="16"/>
       <c r="G29" s="12"/>
@@ -1498,12 +1498,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
@@ -1520,14 +1520,14 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F12:G12"/>
